--- a/src/excel/customer.xlsx
+++ b/src/excel/customer.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet sheetId="1" name="Sheet1" r:id="rId4"/>
+    <sheet sheetId="2" name="Sheet2" r:id="rId5"/>
+    <sheet sheetId="3" name="Sheet3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Id</t>
   </si>
@@ -33,6 +33,9 @@
     <t xml:space="preserve">email </t>
   </si>
   <si>
+    <t>Details</t>
+  </si>
+  <si>
     <t>customer1</t>
   </si>
   <si>
@@ -45,32 +48,41 @@
     <t>dans131994@gmail.com</t>
   </si>
   <si>
+    <t>pipeling</t>
+  </si>
+  <si>
     <t>customer2</t>
   </si>
   <si>
     <t>dans</t>
   </si>
   <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>pipeling</t>
-  </si>
-  <si>
     <t>tunneling</t>
+  </si>
+  <si>
+    <t>customer3</t>
+  </si>
+  <si>
+    <t>ford</t>
+  </si>
+  <si>
+    <t>kljjkl</t>
+  </si>
+  <si>
+    <t>lkjjkl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -396,14 +408,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
@@ -413,7 +425,7 @@
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,47 +442,67 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>7299367</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
       </c>
       <c r="D3">
         <v>7299347253</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -479,24 +511,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/excel/customer.xlsx
+++ b/src/excel/customer.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Id</t>
   </si>
@@ -70,6 +70,24 @@
   </si>
   <si>
     <t>lkjjkl</t>
+  </si>
+  <si>
+    <t>customer4</t>
+  </si>
+  <si>
+    <t>wheels</t>
+  </si>
+  <si>
+    <t>ajay</t>
+  </si>
+  <si>
+    <t>72993</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>for fluid machinsm</t>
   </si>
 </sst>
 </file>
@@ -409,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="F3" sqref="F3"/>
@@ -505,6 +523,26 @@
         <v>17</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/excel/customer.xlsx
+++ b/src/excel/customer.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>Id</t>
   </si>
@@ -88,6 +88,72 @@
   </si>
   <si>
     <t>for fluid machinsm</t>
+  </si>
+  <si>
+    <t>customer5</t>
+  </si>
+  <si>
+    <t>ashok leyland</t>
+  </si>
+  <si>
+    <t>arjun</t>
+  </si>
+  <si>
+    <t>980890908</t>
+  </si>
+  <si>
+    <t>never settle</t>
+  </si>
+  <si>
+    <t>customer6</t>
+  </si>
+  <si>
+    <t>anand</t>
+  </si>
+  <si>
+    <t>988888</t>
+  </si>
+  <si>
+    <t>office for those who did the best iteration</t>
+  </si>
+  <si>
+    <t>customer7</t>
+  </si>
+  <si>
+    <t>oneone</t>
+  </si>
+  <si>
+    <t>onetwothree</t>
+  </si>
+  <si>
+    <t>72993848</t>
+  </si>
+  <si>
+    <t>onefourfive</t>
+  </si>
+  <si>
+    <t>customer8</t>
+  </si>
+  <si>
+    <t>arun</t>
+  </si>
+  <si>
+    <t>980809890</t>
+  </si>
+  <si>
+    <t>09809908</t>
+  </si>
+  <si>
+    <t>customer9</t>
+  </si>
+  <si>
+    <t>twothree</t>
+  </si>
+  <si>
+    <t>232425</t>
+  </si>
+  <si>
+    <t>foursae</t>
   </si>
 </sst>
 </file>
@@ -427,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="F3" sqref="F3"/>
@@ -541,6 +607,106 @@
       </c>
       <c r="F5" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
